--- a/ForTranslation/TextDB.xlsx
+++ b/ForTranslation/TextDB.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="286">
   <si>
     <t>EN</t>
   </si>
@@ -2370,6 +2370,9 @@
       </rPr>
       <t>Honestamente, isso é um perigo à segurança. A Pepper não aprovaria.</t>
     </r>
+  </si>
+  <si>
+    <t>kk</t>
   </si>
 </sst>
 </file>
@@ -2900,7 +2903,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -3167,6 +3170,9 @@
       <c r="F11" s="8" t="s">
         <v>259</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="H11" s="8" t="s">
         <v>119</v>
       </c>
